--- a/13/1/1/Operaciones no financieras 1990 a 2021 - Trimestral.xlsx
+++ b/13/1/1/Operaciones no financieras 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Serie</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3546,10 +3549,10 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>12506696</v>
+        <v>12508297</v>
       </c>
       <c r="C41">
-        <v>10365340</v>
+        <v>10364572</v>
       </c>
       <c r="D41">
         <v>181389</v>
@@ -3558,31 +3561,31 @@
         <v>818830</v>
       </c>
       <c r="F41">
-        <v>59296</v>
+        <v>61717</v>
       </c>
       <c r="G41">
-        <v>220864</v>
+        <v>220863</v>
       </c>
       <c r="H41">
         <v>285759</v>
       </c>
       <c r="I41">
-        <v>575217</v>
+        <v>575167</v>
       </c>
       <c r="J41">
-        <v>11450747</v>
+        <v>11450719</v>
       </c>
       <c r="K41">
-        <v>3688250</v>
+        <v>3688326</v>
       </c>
       <c r="L41">
-        <v>1266788</v>
+        <v>1266697</v>
       </c>
       <c r="M41">
         <v>905806</v>
       </c>
       <c r="N41">
-        <v>3215220</v>
+        <v>3215208</v>
       </c>
       <c r="O41">
         <v>2332903</v>
@@ -3591,28 +3594,28 @@
         <v>41780</v>
       </c>
       <c r="Q41">
-        <v>1055949</v>
+        <v>1057577</v>
       </c>
       <c r="R41">
-        <v>1210658</v>
+        <v>1210725</v>
       </c>
       <c r="S41">
         <v>8066</v>
       </c>
       <c r="T41">
-        <v>689033</v>
+        <v>689050</v>
       </c>
       <c r="U41">
-        <v>529691</v>
+        <v>529741</v>
       </c>
       <c r="V41">
-        <v>12514761</v>
+        <v>12516362</v>
       </c>
       <c r="W41">
-        <v>12669471</v>
+        <v>12669510</v>
       </c>
       <c r="X41">
-        <v>-154709</v>
+        <v>-153147</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3620,10 +3623,10 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>8508702</v>
+        <v>8508745</v>
       </c>
       <c r="C42">
-        <v>6470144</v>
+        <v>6470294</v>
       </c>
       <c r="D42">
         <v>169949</v>
@@ -3632,7 +3635,7 @@
         <v>763407</v>
       </c>
       <c r="F42">
-        <v>83462</v>
+        <v>83437</v>
       </c>
       <c r="G42">
         <v>342879</v>
@@ -3641,52 +3644,52 @@
         <v>149818</v>
       </c>
       <c r="I42">
-        <v>529043</v>
+        <v>528961</v>
       </c>
       <c r="J42">
-        <v>11453707</v>
+        <v>11453568</v>
       </c>
       <c r="K42">
-        <v>3702364</v>
+        <v>3702381</v>
       </c>
       <c r="L42">
-        <v>1412914</v>
+        <v>1412799</v>
       </c>
       <c r="M42">
         <v>104817</v>
       </c>
       <c r="N42">
-        <v>4116365</v>
+        <v>4116335</v>
       </c>
       <c r="O42">
         <v>2083616</v>
       </c>
       <c r="P42">
-        <v>33632</v>
+        <v>33622</v>
       </c>
       <c r="Q42">
-        <v>-2945005</v>
+        <v>-2944823</v>
       </c>
       <c r="R42">
-        <v>1582923</v>
+        <v>1582943</v>
       </c>
       <c r="S42">
         <v>3155</v>
       </c>
       <c r="T42">
-        <v>893630</v>
+        <v>893640</v>
       </c>
       <c r="U42">
-        <v>692448</v>
+        <v>692459</v>
       </c>
       <c r="V42">
-        <v>8511857</v>
+        <v>8511900</v>
       </c>
       <c r="W42">
-        <v>13039785</v>
+        <v>13039667</v>
       </c>
       <c r="X42">
-        <v>-4527928</v>
+        <v>-4527767</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3694,10 +3697,10 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>10432993</v>
+        <v>10432650</v>
       </c>
       <c r="C43">
-        <v>8473872</v>
+        <v>8473611</v>
       </c>
       <c r="D43">
         <v>222643</v>
@@ -3706,43 +3709,43 @@
         <v>725814</v>
       </c>
       <c r="F43">
-        <v>94324</v>
+        <v>94180</v>
       </c>
       <c r="G43">
-        <v>178735</v>
+        <v>178734</v>
       </c>
       <c r="H43">
         <v>191345</v>
       </c>
       <c r="I43">
-        <v>546260</v>
+        <v>546323</v>
       </c>
       <c r="J43">
-        <v>15110116</v>
+        <v>15110236</v>
       </c>
       <c r="K43">
-        <v>3769306</v>
+        <v>3769259</v>
       </c>
       <c r="L43">
-        <v>1458410</v>
+        <v>1458381</v>
       </c>
       <c r="M43">
         <v>876828</v>
       </c>
       <c r="N43">
-        <v>6816973</v>
+        <v>6817205</v>
       </c>
       <c r="O43">
         <v>2149949</v>
       </c>
       <c r="P43">
-        <v>38650</v>
+        <v>38614</v>
       </c>
       <c r="Q43">
-        <v>-4677124</v>
+        <v>-4677586</v>
       </c>
       <c r="R43">
-        <v>1490399</v>
+        <v>1490485</v>
       </c>
       <c r="S43">
         <v>12378</v>
@@ -3751,16 +3754,16 @@
         <v>829377</v>
       </c>
       <c r="U43">
-        <v>673399</v>
+        <v>673486</v>
       </c>
       <c r="V43">
-        <v>10445371</v>
+        <v>10445029</v>
       </c>
       <c r="W43">
-        <v>16612893</v>
+        <v>16613100</v>
       </c>
       <c r="X43">
-        <v>-6167522</v>
+        <v>-6168071</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3768,10 +3771,10 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>12812674</v>
+        <v>12814059</v>
       </c>
       <c r="C44">
-        <v>10387268</v>
+        <v>10388695</v>
       </c>
       <c r="D44">
         <v>445287</v>
@@ -3780,61 +3783,61 @@
         <v>796815</v>
       </c>
       <c r="F44">
-        <v>118677</v>
+        <v>118475</v>
       </c>
       <c r="G44">
         <v>148702</v>
       </c>
       <c r="H44">
-        <v>212057</v>
+        <v>212048</v>
       </c>
       <c r="I44">
-        <v>703869</v>
+        <v>704036</v>
       </c>
       <c r="J44">
-        <v>13501443</v>
+        <v>13498809</v>
       </c>
       <c r="K44">
-        <v>3922109</v>
+        <v>3921694</v>
       </c>
       <c r="L44">
-        <v>2042503</v>
+        <v>2041135</v>
       </c>
       <c r="M44">
-        <v>51078</v>
+        <v>51071</v>
       </c>
       <c r="N44">
-        <v>5094602</v>
+        <v>5093571</v>
       </c>
       <c r="O44">
-        <v>2333884</v>
+        <v>2334075</v>
       </c>
       <c r="P44">
-        <v>57267</v>
+        <v>57262</v>
       </c>
       <c r="Q44">
-        <v>-688768</v>
+        <v>-684750</v>
       </c>
       <c r="R44">
-        <v>2741067</v>
+        <v>2741679</v>
       </c>
       <c r="S44">
         <v>4261</v>
       </c>
       <c r="T44">
-        <v>1629542</v>
+        <v>1629821</v>
       </c>
       <c r="U44">
-        <v>1115786</v>
+        <v>1116119</v>
       </c>
       <c r="V44">
-        <v>12816935</v>
+        <v>12818319</v>
       </c>
       <c r="W44">
-        <v>16246770</v>
+        <v>16244748</v>
       </c>
       <c r="X44">
-        <v>-3429835</v>
+        <v>-3426429</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3842,73 +3845,147 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>13400199</v>
+        <v>13409864</v>
       </c>
       <c r="C45">
-        <v>10863952</v>
+        <v>10883348</v>
       </c>
       <c r="D45">
-        <v>253444</v>
+        <v>253443</v>
       </c>
       <c r="E45">
         <v>688144</v>
       </c>
       <c r="F45">
-        <v>38624</v>
+        <v>44917</v>
       </c>
       <c r="G45">
-        <v>103619</v>
+        <v>103435</v>
       </c>
       <c r="H45">
-        <v>524355</v>
+        <v>524415</v>
       </c>
       <c r="I45">
-        <v>928062</v>
+        <v>912162</v>
       </c>
       <c r="J45">
-        <v>13154404</v>
+        <v>13141425</v>
       </c>
       <c r="K45">
-        <v>4007697</v>
+        <v>4011006</v>
       </c>
       <c r="L45">
-        <v>1380610</v>
+        <v>1373007</v>
       </c>
       <c r="M45">
-        <v>916056</v>
+        <v>916087</v>
       </c>
       <c r="N45">
-        <v>4559284</v>
+        <v>4548705</v>
       </c>
       <c r="O45">
-        <v>2248938</v>
+        <v>2250102</v>
       </c>
       <c r="P45">
-        <v>41819</v>
+        <v>42519</v>
       </c>
       <c r="Q45">
-        <v>245794</v>
+        <v>268439</v>
       </c>
       <c r="R45">
-        <v>1352236</v>
+        <v>1363169</v>
       </c>
       <c r="S45">
-        <v>4501</v>
+        <v>3007</v>
       </c>
       <c r="T45">
-        <v>734982</v>
+        <v>741214</v>
       </c>
       <c r="U45">
-        <v>621756</v>
+        <v>624962</v>
       </c>
       <c r="V45">
-        <v>13404700</v>
+        <v>13412871</v>
       </c>
       <c r="W45">
-        <v>14511142</v>
+        <v>14507601</v>
       </c>
       <c r="X45">
-        <v>-1106442</v>
+        <v>-1094730</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>14569771</v>
+      </c>
+      <c r="C46">
+        <v>11730767</v>
+      </c>
+      <c r="D46">
+        <v>877998</v>
+      </c>
+      <c r="E46">
+        <v>684890</v>
+      </c>
+      <c r="F46">
+        <v>87597</v>
+      </c>
+      <c r="G46">
+        <v>116442</v>
+      </c>
+      <c r="H46">
+        <v>273560</v>
+      </c>
+      <c r="I46">
+        <v>798518</v>
+      </c>
+      <c r="J46">
+        <v>16932658</v>
+      </c>
+      <c r="K46">
+        <v>4012826</v>
+      </c>
+      <c r="L46">
+        <v>1592661</v>
+      </c>
+      <c r="M46">
+        <v>94113</v>
+      </c>
+      <c r="N46">
+        <v>8904484</v>
+      </c>
+      <c r="O46">
+        <v>2281739</v>
+      </c>
+      <c r="P46">
+        <v>46835</v>
+      </c>
+      <c r="Q46">
+        <v>-2362888</v>
+      </c>
+      <c r="R46">
+        <v>1899413</v>
+      </c>
+      <c r="S46">
+        <v>2198</v>
+      </c>
+      <c r="T46">
+        <v>1082587</v>
+      </c>
+      <c r="U46">
+        <v>819025</v>
+      </c>
+      <c r="V46">
+        <v>14571969</v>
+      </c>
+      <c r="W46">
+        <v>18834270</v>
+      </c>
+      <c r="X46">
+        <v>-4262301</v>
       </c>
     </row>
   </sheetData>
